--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_22.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1239193.977318085</v>
+        <v>1232183.248202092</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>319.7627475245584</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>11.18572375937419</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
@@ -704,25 +704,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,10 +747,10 @@
         <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
-        <v>105.7623468664428</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
         <v>87.41444223540508</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>131.9987836010436</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -865,16 +865,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>127.7349619690957</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>72.03891734518163</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>296.2655293179138</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>138.5681939068029</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -975,13 +975,13 @@
         <v>150.2783710965517</v>
       </c>
       <c r="C6" t="n">
-        <v>149.1476881355087</v>
+        <v>26.07790731074601</v>
       </c>
       <c r="D6" t="n">
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>123.1874880556995</v>
@@ -1023,10 +1023,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968084</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>118.9342586165956</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1108,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>216.8524214313259</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>3.298172684278586</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -1148,7 +1148,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>285.8222677061724</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>42.01622403047602</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>58.74885501586189</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>93.770107113628</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>16.24048897325125</v>
+        <v>166.4277729946968</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>19.6041781797883</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D13" t="n">
         <v>82.99846957177846</v>
@@ -1540,7 +1540,7 @@
         <v>84.67436304442484</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
         <v>162.2835489187163</v>
@@ -1591,10 +1591,10 @@
         <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001148</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>86.14922286937133</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>199.0832980908714</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>65.87543334372788</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.770107113628</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>150.1872840214455</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>149.3750809841012</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,7 +1765,7 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993873</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>82.99846957177846</v>
@@ -1774,16 +1774,16 @@
         <v>82.92491162465757</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442484</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.71132638500454</v>
+        <v>60.68516871456094</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,16 +1813,16 @@
         <v>51.58366707901686</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>30.76740128630135</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1831,7 +1831,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,7 +1904,7 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658112</v>
       </c>
       <c r="X17" t="n">
         <v>255.1981097006893</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2315,13 +2315,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
         <v>268.1977203190365</v>
@@ -2333,10 +2333,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
         <v>103.0018919978638</v>
@@ -2536,13 +2536,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
         <v>106.7966485049596</v>
@@ -2804,13 +2804,13 @@
         <v>318.7342196110055</v>
       </c>
       <c r="G29" t="n">
-        <v>315.0398534825604</v>
+        <v>315.0398534825603</v>
       </c>
       <c r="H29" t="n">
         <v>226.8509454548577</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414332</v>
+        <v>42.9624712641433</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404344</v>
+        <v>70.85714503404343</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
       </c>
       <c r="U29" t="n">
-        <v>159.2039277954309</v>
+        <v>159.2039277954308</v>
       </c>
       <c r="V29" t="n">
         <v>244.6944667292003</v>
@@ -2855,7 +2855,7 @@
         <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>291.5668045419572</v>
       </c>
       <c r="Y29" t="n">
         <v>298.5345275142884</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007176</v>
+        <v>89.36466403007175</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035417</v>
+        <v>74.51179228035416</v>
       </c>
       <c r="D31" t="n">
-        <v>60.0855074921939</v>
+        <v>60.08550749219388</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507301</v>
+        <v>60.01194954507299</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484028</v>
+        <v>61.76140096484026</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723241</v>
+        <v>72.5802388872324</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380445</v>
+        <v>59.93249105380444</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497638</v>
+        <v>37.77220663497637</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943343</v>
+        <v>28.67070499943298</v>
       </c>
       <c r="S31" t="n">
         <v>106.7966485049596</v>
@@ -3004,13 +3004,13 @@
         <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
         <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
-        <v>186.5058235738177</v>
+        <v>186.5058235738176</v>
       </c>
       <c r="X31" t="n">
         <v>137.7482445205302</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.709878481573</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093888</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954278</v>
+        <v>268.806797722789</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.777769861911</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126121</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568057</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291031</v>
+        <v>208.0623001564643</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838871</v>
+        <v>24.17382596574991</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828884</v>
+        <v>52.06849973565004</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308069</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086855</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162026</v>
+        <v>272.7781592435638</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.745882215895</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431716</v>
+        <v>70.57601873167836</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459957</v>
+        <v>55.72314698196077</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643929</v>
+        <v>41.29686219380049</v>
       </c>
       <c r="E34" t="n">
-        <v>47.6667667193184</v>
+        <v>41.2233042466796</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908567</v>
+        <v>42.97275566644687</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147781</v>
+        <v>53.79159358883901</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804985</v>
+        <v>41.14384575541105</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922178</v>
+        <v>18.98356133658298</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.3255221736777</v>
+        <v>9.882059701038898</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920501</v>
+        <v>88.00800320656622</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407383</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404469</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.5396319546741</v>
       </c>
       <c r="W34" t="n">
-        <v>174.160640748063</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947756</v>
+        <v>118.9595992221368</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253657</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -3977,16 +3977,16 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
       </c>
       <c r="E44" t="n">
-        <v>268.1977203190365</v>
+        <v>268.1977203190366</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G44" t="n">
         <v>278.6711586412925</v>
@@ -3995,7 +3995,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875521</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,16 +4025,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277517</v>
+        <v>34.48845019277564</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059319</v>
       </c>
       <c r="U44" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541631</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W44" t="n">
         <v>236.9290753658111</v>
@@ -4043,7 +4043,7 @@
         <v>255.1981097006894</v>
       </c>
       <c r="Y44" t="n">
-        <v>262.1658326730205</v>
+        <v>262.1658326730206</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880397</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908638</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.7168126509261</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380521</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357248</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596462</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253666</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708589</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369182</v>
       </c>
       <c r="T46" t="n">
         <v>103.0018919978639</v>
       </c>
       <c r="U46" t="n">
-        <v>152.2244345249337</v>
+        <v>152.2244345249338</v>
       </c>
       <c r="V46" t="n">
         <v>132.9595824117997</v>
       </c>
       <c r="W46" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325499</v>
       </c>
       <c r="X46" t="n">
         <v>101.3795496792624</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593878</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>65.47204529596587</v>
+        <v>881.4022724494637</v>
       </c>
       <c r="C2" t="n">
-        <v>65.47204529596587</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="D2" t="n">
-        <v>65.47204529596587</v>
+        <v>870.1035615814089</v>
       </c>
       <c r="E2" t="n">
-        <v>65.47204529596587</v>
+        <v>467.5200366979535</v>
       </c>
       <c r="F2" t="n">
-        <v>52.6180108663477</v>
+        <v>50.62559822793125</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475492</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>402.4780154222167</v>
+        <v>443.3542064554294</v>
       </c>
       <c r="L2" t="n">
-        <v>895.7983071407456</v>
+        <v>936.6744981739582</v>
       </c>
       <c r="M2" t="n">
-        <v>1206.932085207955</v>
+        <v>936.6744981739582</v>
       </c>
       <c r="N2" t="n">
-        <v>1734.743368845418</v>
+        <v>1450.277176783647</v>
       </c>
       <c r="O2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="P2" t="n">
-        <v>2174.782969737746</v>
+        <v>1890.316777675975</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023268</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.276500964319</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="T2" t="n">
-        <v>1746.775898523735</v>
+        <v>1908.648782757974</v>
       </c>
       <c r="U2" t="n">
-        <v>1491.023168958334</v>
+        <v>1652.896053192573</v>
       </c>
       <c r="V2" t="n">
-        <v>1148.916359661852</v>
+        <v>1652.896053192573</v>
       </c>
       <c r="W2" t="n">
-        <v>777.9173246301398</v>
+        <v>1281.897018160861</v>
       </c>
       <c r="X2" t="n">
-        <v>388.4647195631966</v>
+        <v>1281.897018160861</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.4647195631966</v>
+        <v>1281.897018160861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021411</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622333</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837136</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946013</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F3" t="n">
-        <v>131.793075794154</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>131.793075794154</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475492</v>
+        <v>154.6182289760659</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475492</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930682</v>
+        <v>957.9234609366056</v>
       </c>
       <c r="M3" t="n">
-        <v>527.0617452930682</v>
+        <v>1471.526139546294</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875477</v>
+        <v>1985.128818155983</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466458</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182855</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.86592663581</v>
+        <v>2051.245294714988</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535679</v>
+        <v>1916.314617614857</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734588</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413229</v>
+        <v>1529.267662492407</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1306.727660863474</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917583</v>
+        <v>1076.610414996761</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675951</v>
+        <v>943.2783103492424</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431024</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43.49565939475492</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="C4" t="n">
-        <v>43.49565939475492</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="D4" t="n">
-        <v>43.49565939475492</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="E4" t="n">
-        <v>43.49565939475492</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="G4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="H4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U4" t="n">
-        <v>815.9174678261097</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="V4" t="n">
-        <v>549.9381226469339</v>
+        <v>667.3676023034891</v>
       </c>
       <c r="W4" t="n">
-        <v>266.6077205781116</v>
+        <v>384.0372002346668</v>
       </c>
       <c r="X4" t="n">
-        <v>266.6077205781116</v>
+        <v>384.0372002346668</v>
       </c>
       <c r="Y4" t="n">
-        <v>43.49565939475492</v>
+        <v>384.0372002346668</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>988.344909880007</v>
+        <v>905.1152640276239</v>
       </c>
       <c r="C5" t="n">
-        <v>595.1694083829375</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="D5" t="n">
-        <v>595.1694083829375</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="E5" t="n">
-        <v>192.585883499482</v>
+        <v>605.8571536054887</v>
       </c>
       <c r="F5" t="n">
-        <v>52.6180108663477</v>
+        <v>593.0031191758706</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475492</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475492</v>
+        <v>179.8403636638737</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>534.8235384748673</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059666</v>
+        <v>1048.426217084556</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697128</v>
+        <v>1562.028895694245</v>
       </c>
       <c r="O5" t="n">
-        <v>2106.518148697128</v>
+        <v>1726.974845685402</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737746</v>
+        <v>2037.169424102446</v>
       </c>
       <c r="V5" t="n">
-        <v>2174.782969737746</v>
+        <v>1695.062614805964</v>
       </c>
       <c r="W5" t="n">
-        <v>2174.782969737746</v>
+        <v>1695.062614805964</v>
       </c>
       <c r="X5" t="n">
-        <v>1785.330364670803</v>
+        <v>1305.610009739021</v>
       </c>
       <c r="Y5" t="n">
-        <v>1388.839655591404</v>
+        <v>1305.610009739021</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>580.1098290832545</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>553.7685085673494</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.187917143826</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284333</v>
+        <v>90.89050074442689</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>118.2679669754075</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>438.0071130376339</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144823</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653847</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875477</v>
+        <v>921.5731989359472</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466458</v>
+        <v>1435.175877545636</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262033</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737746</v>
+        <v>2075.162337816924</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737746</v>
+        <v>1940.231660716793</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1763.247848915701</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1553.184705594343</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1330.64470396541</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1100.527458098697</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>911.2203804487085</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>731.9061635242158</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>176.5900847576771</v>
+        <v>698.91366516623</v>
       </c>
       <c r="C7" t="n">
-        <v>176.5900847576771</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="D7" t="n">
-        <v>176.5900847576771</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="E7" t="n">
-        <v>176.5900847576771</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="F7" t="n">
-        <v>176.5900847576771</v>
+        <v>528.7085472322192</v>
       </c>
       <c r="G7" t="n">
-        <v>176.5900847576771</v>
+        <v>360.4544933316647</v>
       </c>
       <c r="H7" t="n">
-        <v>176.5900847576771</v>
+        <v>204.9759422931587</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475492</v>
+        <v>71.88151693023653</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475492</v>
+        <v>41.50324675633848</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662804</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U7" t="n">
-        <v>725.8998320056752</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V7" t="n">
-        <v>459.9204868264994</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="W7" t="n">
-        <v>176.5900847576771</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="X7" t="n">
-        <v>176.5900847576771</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="Y7" t="n">
-        <v>176.5900847576771</v>
+        <v>819.0492799304679</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1279.953688967018</v>
+        <v>1204.784702076949</v>
       </c>
       <c r="C8" t="n">
-        <v>1279.953688967018</v>
+        <v>1204.784702076949</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>1201.453214517072</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,25 +4802,25 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>179.1178642627589</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>538.1002202902207</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="L8" t="n">
-        <v>1031.420512008749</v>
+        <v>685.2830347289006</v>
       </c>
       <c r="M8" t="n">
-        <v>1577.42141205333</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.42141205333</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2365.64850507718</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>2365.64850507718</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="W8" t="n">
-        <v>2365.64850507718</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="X8" t="n">
-        <v>2076.939143757814</v>
+        <v>1601.275411156348</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.448434678415</v>
+        <v>1204.784702076949</v>
       </c>
     </row>
     <row r="9">
@@ -4881,22 +4881,22 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>47.31297010154361</v>
+        <v>443.7671209181044</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083089</v>
+        <v>1029.265125924707</v>
       </c>
       <c r="N9" t="n">
-        <v>1209.141762214911</v>
+        <v>1614.763130931309</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805892</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
         <v>2131.28341352229</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.69124027544166</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="C10" t="n">
-        <v>77.69124027544166</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="D10" t="n">
-        <v>77.69124027544166</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="E10" t="n">
-        <v>77.69124027544166</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>245.9452941759961</v>
       </c>
       <c r="G10" t="n">
         <v>77.69124027544166</v>
@@ -4984,28 +4984,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>824.8590032756731</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>782.4183729418589</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="U10" t="n">
-        <v>496.9795811837598</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="V10" t="n">
-        <v>496.9795811837598</v>
+        <v>686.6016310318455</v>
       </c>
       <c r="W10" t="n">
-        <v>496.9795811837598</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="X10" t="n">
-        <v>262.8992589667429</v>
+        <v>403.2712289630232</v>
       </c>
       <c r="Y10" t="n">
-        <v>262.8992589667429</v>
+        <v>403.2712289630232</v>
       </c>
     </row>
     <row r="11">
@@ -5033,7 +5033,7 @@
         <v>380.9467447527725</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>128.659969465457</v>
       </c>
       <c r="I11" t="n">
         <v>62.11912770411573</v>
@@ -5069,16 +5069,16 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>3011.239105293021</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2827.282650873813</v>
       </c>
       <c r="V11" t="n">
-        <v>2659.173789263008</v>
+        <v>2659.173789263009</v>
       </c>
       <c r="W11" t="n">
-        <v>2659.173789263008</v>
+        <v>2659.173789263009</v>
       </c>
       <c r="X11" t="n">
         <v>2341.517459342259</v>
@@ -5130,7 +5130,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
         <v>2380.454662679751</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>347.745604232205</v>
+        <v>329.894468084057</v>
       </c>
       <c r="C13" t="n">
-        <v>327.9434040506006</v>
+        <v>231.4856252962401</v>
       </c>
       <c r="D13" t="n">
-        <v>244.1065660993093</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1065660993093</v>
+        <v>147.6487873449487</v>
       </c>
       <c r="F13" t="n">
-        <v>158.5769064584761</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
         <v>62.11912770411553</v>
@@ -5209,10 +5209,10 @@
         <v>746.0697615118221</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
         <v>1422.942916173672</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T13" t="n">
-        <v>1280.705150907706</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U13" t="n">
-        <v>1067.062634295801</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>872.8795642628193</v>
+        <v>741.8597555915625</v>
       </c>
       <c r="W13" t="n">
-        <v>661.3454373401908</v>
+        <v>530.3256286689334</v>
       </c>
       <c r="X13" t="n">
-        <v>499.0613902693678</v>
+        <v>530.3256286689334</v>
       </c>
       <c r="Y13" t="n">
-        <v>347.745604232205</v>
+        <v>443.3062116291644</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1467.291089243225</v>
+        <v>1558.431545602419</v>
       </c>
       <c r="C14" t="n">
-        <v>1145.91186289235</v>
+        <v>1237.052319251543</v>
       </c>
       <c r="D14" t="n">
-        <v>1145.91186289235</v>
+        <v>923.4074656144046</v>
       </c>
       <c r="E14" t="n">
-        <v>815.1246131550881</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="F14" t="n">
-        <v>470.0264498312598</v>
+        <v>722.3132251185752</v>
       </c>
       <c r="G14" t="n">
-        <v>128.6599694654568</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654568</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2859.534777998631</v>
+        <v>2770.295603492179</v>
       </c>
       <c r="V14" t="n">
-        <v>2589.224243848344</v>
+        <v>2499.985069341892</v>
       </c>
       <c r="W14" t="n">
-        <v>2438.340323662383</v>
+        <v>2200.782309456373</v>
       </c>
       <c r="X14" t="n">
-        <v>2120.683993741633</v>
+        <v>1883.125979535624</v>
       </c>
       <c r="Y14" t="n">
-        <v>1795.989559808428</v>
+        <v>1558.431545602419</v>
       </c>
     </row>
     <row r="15">
@@ -5367,7 +5367,7 @@
         <v>1606.310991511064</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>428.5169307200796</v>
+        <v>387.4744316210992</v>
       </c>
       <c r="C16" t="n">
-        <v>330.1080879322627</v>
+        <v>387.4744316210992</v>
       </c>
       <c r="D16" t="n">
-        <v>246.2712499809713</v>
+        <v>303.6375936698078</v>
       </c>
       <c r="E16" t="n">
-        <v>162.5087129863678</v>
+        <v>219.8750566752042</v>
       </c>
       <c r="F16" t="n">
-        <v>76.97905334553425</v>
+        <v>219.8750566752042</v>
       </c>
       <c r="G16" t="n">
-        <v>76.97905334553425</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="H16" t="n">
-        <v>76.97905334553425</v>
+        <v>123.4172779208436</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5440,13 +5440,13 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027736</v>
+        <v>489.4106539027737</v>
       </c>
       <c r="M16" t="n">
         <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138161</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814507</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="R16" t="n">
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1282.529935804545</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>1068.88741919264</v>
       </c>
       <c r="V16" t="n">
-        <v>1067.062634295801</v>
+        <v>874.7043491596581</v>
       </c>
       <c r="W16" t="n">
-        <v>855.5285073731727</v>
+        <v>663.1702222370296</v>
       </c>
       <c r="X16" t="n">
-        <v>693.2444603023498</v>
+        <v>500.8861751662066</v>
       </c>
       <c r="Y16" t="n">
-        <v>541.9286742651871</v>
+        <v>500.8861751662066</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5549,7 +5549,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5674,25 +5674,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1092.622519868097</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599517</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5792,10 +5792,10 @@
         <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840157</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5829,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>62.11912770411553</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>308.0818086878572</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M22" t="n">
-        <v>494.3733870261212</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N22" t="n">
-        <v>683.1426636655146</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6026,7 +6026,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>689.8907773307967</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N24" t="n">
-        <v>1345.668748541356</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O24" t="n">
-        <v>1862.189031132337</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P24" t="n">
-        <v>2267.810399848734</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6151,16 +6151,16 @@
         <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>313.6614512960405</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567331</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879423</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296503</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
         <v>1094.779966106229</v>
@@ -6175,22 +6175,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,73 +6200,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390263</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>218.0146318563783</v>
+        <v>303.7986541368132</v>
       </c>
       <c r="K26" t="n">
-        <v>576.9969878838401</v>
+        <v>662.781010164275</v>
       </c>
       <c r="L26" t="n">
-        <v>1163.368641331942</v>
+        <v>1249.152663612377</v>
       </c>
       <c r="M26" t="n">
-        <v>1739.339056658945</v>
+        <v>1888.204925386531</v>
       </c>
       <c r="N26" t="n">
-        <v>2360.20170202598</v>
+        <v>2509.067570753567</v>
       </c>
       <c r="O26" t="n">
-        <v>2893.292664647882</v>
+        <v>2949.107171645895</v>
       </c>
       <c r="P26" t="n">
-        <v>3334.531518508977</v>
+        <v>3390.34602550699</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.428440379499</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377512</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,25 +6303,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>73.36485894755025</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>73.36485894755025</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,43 +6358,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878068</v>
       </c>
       <c r="F28" t="n">
         <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746015</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232842</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I28" t="n">
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796861</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192013</v>
+        <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225736</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904108</v>
       </c>
       <c r="N28" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O28" t="n">
         <v>1380.047947122475</v>
@@ -6424,7 +6424,7 @@
         <v>861.9084564286447</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988161</v>
+        <v>722.7688154988163</v>
       </c>
       <c r="Y28" t="n">
         <v>594.5974356026479</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.07949512186</v>
+        <v>986.0794951218604</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390261</v>
+        <v>664.1257379390265</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142176</v>
+        <v>345.9036637142181</v>
       </c>
       <c r="H29" t="n">
         <v>116.761294567897</v>
@@ -6464,22 +6464,22 @@
         <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>576.9969878838401</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L29" t="n">
-        <v>1100.286794884791</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M29" t="n">
-        <v>1739.339056658945</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2360.20170202598</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O29" t="n">
-        <v>2893.292664647882</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3334.531518508977</v>
+        <v>3427.58288023855</v>
       </c>
       <c r="Q29" t="n">
         <v>3612.428440379499</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755025</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755025</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755025</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>2273.334693965057</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,7 +6595,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985347</v>
+        <v>504.3300981985346</v>
       </c>
       <c r="C31" t="n">
         <v>429.0656615517123</v>
@@ -6607,7 +6607,7 @@
         <v>307.7550988878063</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879676</v>
+        <v>245.3698453879677</v>
       </c>
       <c r="G31" t="n">
         <v>172.0564727746016</v>
@@ -6619,16 +6619,16 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192014</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225744</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904117</v>
+        <v>848.0508225904118</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
@@ -6649,22 +6649,22 @@
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102265</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286444</v>
+        <v>861.9084564286442</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988159</v>
+        <v>722.7688154988157</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026476</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.79887591859</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654424</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800456</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463656</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057082</v>
+        <v>601.3807258108111</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230762</v>
+        <v>302.1370811803395</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835514</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>323.857029086156</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136179</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1287.81179740713</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031764</v>
+        <v>2361.623981089173</v>
       </c>
       <c r="O32" t="n">
-        <v>2896.171031651163</v>
+        <v>2844.723727844786</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782685</v>
+        <v>3192.911219976307</v>
       </c>
       <c r="Q32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117256</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.162335939831</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397274</v>
+        <v>3215.580844380773</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761238</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394121</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291773</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154195</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004161</v>
+        <v>2030.374510748461</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076156</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>69.54754824076156</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>69.54754824076156</v>
+        <v>807.9710480600437</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>807.9710480600437</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270603</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861584</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965115</v>
+        <v>365.6713676929722</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918654</v>
+        <v>309.3853606404866</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237449</v>
+        <v>267.6713584245265</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123122</v>
+        <v>226.0316571652542</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546499</v>
+        <v>182.6248332597523</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834602</v>
+        <v>128.2898902407229</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431891</v>
+        <v>86.73045008374207</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234512</v>
       </c>
       <c r="J34" t="n">
-        <v>69.54754824076156</v>
+        <v>149.4335135798904</v>
       </c>
       <c r="K34" t="n">
-        <v>151.3825893507034</v>
+        <v>337.0682132920812</v>
       </c>
       <c r="L34" t="n">
-        <v>409.5369032805478</v>
+        <v>612.8479737408637</v>
       </c>
       <c r="M34" t="n">
-        <v>595.8284816188118</v>
+        <v>799.1395520791277</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770914</v>
+        <v>982.329186110337</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.26906814587</v>
+        <v>1256.686073727028</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649519</v>
+        <v>1376.562239503606</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.11361574664</v>
+        <v>1379.984435873657</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308582</v>
+        <v>1370.002557387759</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420496</v>
+        <v>1281.105584451834</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518095</v>
+        <v>1159.305643501593</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250194</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395496</v>
+        <v>835.7257283273688</v>
       </c>
       <c r="W34" t="n">
-        <v>733.392329300092</v>
+        <v>666.3144371400715</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124399</v>
+        <v>546.1532258045797</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758448</v>
+        <v>436.9602755027483</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924223</v>
@@ -6965,10 +6965,10 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V35" t="n">
         <v>2644.789635573994</v>
@@ -6977,7 +6977,7 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X35" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y35" t="n">
         <v>1882.877496443165</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7096,25 +7096,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L37" t="n">
-        <v>308.0818086878572</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M37" t="n">
-        <v>494.3733870261212</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N37" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>960.1439538756169</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
         <v>1098.20216247628</v>
@@ -7154,16 +7154,16 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.7795079292422</v>
@@ -7208,10 +7208,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133159</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>804.578023344525</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>967.282790386233</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532862</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
         <v>1098.20216247628</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462918</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7582,37 +7582,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>967.282790386234</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162813</v>
       </c>
       <c r="Q43" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918806</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984004</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7628,25 +7628,25 @@
         <v>1352.560722599516</v>
       </c>
       <c r="D44" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E44" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F44" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G44" t="n">
-        <v>261.1858216803435</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924234</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J44" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K44" t="n">
         <v>565.7512566404055</v>
@@ -7658,28 +7658,28 @@
         <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040979</v>
       </c>
       <c r="O44" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933307</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064829</v>
       </c>
       <c r="Q44" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205778</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829237</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071062</v>
       </c>
       <c r="U44" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188069</v>
       </c>
       <c r="V44" t="n">
         <v>2644.789635573995</v>
@@ -7691,7 +7691,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y44" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="45">
@@ -7719,31 +7719,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="P45" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885601</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369577</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218808</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634917</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.915947958873</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072693</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462928</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="J46" t="n">
-        <v>67.69877031229987</v>
+        <v>62.11912770411556</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222417</v>
+        <v>149.5338114222427</v>
       </c>
       <c r="L46" t="n">
-        <v>442.71782091847</v>
+        <v>442.7178209184709</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567349</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879441</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296521</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106231</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.202162476282</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918818</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161911</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194237</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330097</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984012</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.463261197453</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>402.8575817552604</v>
       </c>
       <c r="L2" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>464.0015950999594</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>92.38712204931191</v>
+        <v>611.1777065035428</v>
       </c>
       <c r="N3" t="n">
-        <v>581.5483568768018</v>
+        <v>604.1626973083976</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>183.6305080413546</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,25 +8213,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321637</v>
+        <v>668.5156360519582</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920151</v>
       </c>
       <c r="O5" t="n">
-        <v>149.5638374240964</v>
+        <v>316.1759081222352</v>
       </c>
       <c r="P5" t="n">
-        <v>219.2558119284184</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>159.9845787667364</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>419.0606576562841</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886031</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431199</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8450,19 +8450,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>250.8160946708464</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>331.0195299270391</v>
       </c>
       <c r="N8" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8471,7 +8471,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>376.26152725776</v>
       </c>
       <c r="M9" t="n">
-        <v>674.5394322581658</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,7 +8547,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>327.7205688679246</v>
@@ -8778,10 +8778,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
@@ -9015,10 +9015,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
-        <v>345.5977578821532</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P15" t="n">
         <v>87.08336481931465</v>
@@ -9419,7 +9419,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294519</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9477,28 +9477,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9714,13 +9714,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
         <v>726.4998994499999</v>
@@ -9729,13 +9729,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P24" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q24" t="n">
-        <v>204.7702368236083</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P27" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10188,28 +10188,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,16 +10425,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>400.7288157213069</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056834</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>210.5494662449327</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10829,7 +10829,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M38" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N38" t="n">
         <v>682.2612020826953</v>
@@ -10899,28 +10899,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056833</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O39" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,28 +11136,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11373,28 +11373,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>206.6446779083334</v>
       </c>
       <c r="Q45" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214455</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>251.3669398355336</v>
+        <v>101.1796558140881</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>77.82057618015043</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681697</v>
       </c>
       <c r="H13" t="n">
         <v>82.84545313338901</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>63.65340530741982</v>
       </c>
     </row>
     <row r="14">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>128.3960791490176</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344423</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.770107113628</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>146.8356513025623</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993873</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442484</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681697</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>82.84545313338901</v>
       </c>
       <c r="I16" t="n">
-        <v>45.9738423295564</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,16 +23701,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845442</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>131.5161476324149</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -23792,7 +23792,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>-1.4210854715202e-13</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>-1.129762949858559e-12</v>
+        <v>-6.927791673660977e-13</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25913,7 +25913,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>4.192202140984591e-13</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>764923.3124371225</v>
+        <v>764923.3124371223</v>
       </c>
     </row>
     <row r="6">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396730.791805385</v>
+        <v>396730.7918053849</v>
       </c>
       <c r="C2" t="n">
         <v>396730.791805385</v>
       </c>
       <c r="D2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.791805385</v>
       </c>
       <c r="E2" t="n">
-        <v>350589.8515336813</v>
+        <v>350589.8515336814</v>
       </c>
       <c r="F2" t="n">
-        <v>350589.8515336813</v>
+        <v>350589.8515336814</v>
       </c>
       <c r="G2" t="n">
         <v>396730.791805385</v>
@@ -26332,16 +26332,16 @@
         <v>396730.7918053849</v>
       </c>
       <c r="I2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.791805385</v>
       </c>
       <c r="J2" t="n">
         <v>396730.7918053848</v>
       </c>
       <c r="K2" t="n">
-        <v>396730.7918053849</v>
+        <v>396730.791805385</v>
       </c>
       <c r="L2" t="n">
-        <v>396730.7918053854</v>
+        <v>396730.7918053856</v>
       </c>
       <c r="M2" t="n">
         <v>396730.7918053849</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062212</v>
+        <v>22558.42953401337</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668198</v>
+        <v>47425.32553668195</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
+        <v>3.410605131648481e-11</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62456.24177539667</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43252.52447081116</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-11</v>
       </c>
-      <c r="L3" t="n">
-        <v>57301.47179728565</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42200.829459623</v>
-      </c>
-      <c r="N3" t="n">
-        <v>6.821210263296962e-11</v>
-      </c>
       <c r="O3" t="n">
-        <v>27767.69404277119</v>
+        <v>27767.69404277118</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005334</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243106</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704044</v>
+        <v>154346.0890704043</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373747</v>
+        <v>74084.49552373748</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153197</v>
@@ -26445,19 +26445,19 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153196</v>
+        <v>121843.4120153197</v>
       </c>
       <c r="N4" t="n">
         <v>121843.4120153197</v>
       </c>
       <c r="O4" t="n">
+        <v>121843.4120153196</v>
+      </c>
+      <c r="P4" t="n">
         <v>121843.4120153197</v>
-      </c>
-      <c r="P4" t="n">
-        <v>121843.4120153196</v>
       </c>
     </row>
     <row r="5">
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481724</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,7 +26485,7 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
         <v>58169.76931551966</v>
@@ -26497,7 +26497,7 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
         <v>58169.76931551966</v>
@@ -26506,10 +26506,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="P5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551968</v>
       </c>
     </row>
     <row r="6">
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19364.56085079498</v>
+        <v>-16216.21026402107</v>
       </c>
       <c r="C6" t="n">
-        <v>162840.3874410607</v>
+        <v>157642.4467700342</v>
       </c>
       <c r="D6" t="n">
-        <v>157977.1051471853</v>
+        <v>150240.8159237941</v>
       </c>
       <c r="E6" t="n">
-        <v>111196.7748360588</v>
+        <v>110987.0432893693</v>
       </c>
       <c r="F6" t="n">
-        <v>223319.3363101033</v>
+        <v>223109.6047634138</v>
       </c>
       <c r="G6" t="n">
-        <v>169292.2849378636</v>
+        <v>169292.2849378637</v>
       </c>
       <c r="H6" t="n">
+        <v>216717.6104745456</v>
+      </c>
+      <c r="I6" t="n">
         <v>216717.6104745457</v>
       </c>
-      <c r="I6" t="n">
-        <v>216717.6104745456</v>
-      </c>
       <c r="J6" t="n">
-        <v>3675.692877260131</v>
+        <v>10191.97803183309</v>
       </c>
       <c r="K6" t="n">
-        <v>210477.8420717625</v>
+        <v>210477.8420717626</v>
       </c>
       <c r="L6" t="n">
-        <v>155295.2531371419</v>
+        <v>151246.41592667</v>
       </c>
       <c r="M6" t="n">
-        <v>174516.7810149226</v>
+        <v>173465.0860037345</v>
       </c>
       <c r="N6" t="n">
-        <v>216717.6104745453</v>
+        <v>216717.6104745454</v>
       </c>
       <c r="O6" t="n">
         <v>188949.9164317744</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.790584454231</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,7 +26805,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26817,7 +26817,7 @@
         <v>917.0607368443781</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095195</v>
+        <v>844.439195029314</v>
       </c>
       <c r="M4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26826,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014444</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
+        <v>4.263256414560601e-14</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924583</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287448</v>
+      </c>
+      <c r="N2" t="n">
         <v>2.842170943040401e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>71.62683974660706</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551322</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
-      </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346397</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.790584454231</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773705</v>
+        <v>659.362224997165</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,19 +27157,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085247</v>
+        <v>59.28165692085244</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346401</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>4.263256414560601e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344365</v>
+        <v>518.790584454231</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485856</v>
+        <v>72.62154181506412</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>76.72705072972451</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>378.0580227227245</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27424,25 +27424,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27467,10 +27467,10 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>17.42514118925668</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>55.41522327244485</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>177.5210747552478</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27585,16 +27585,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>154.8494418714224</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>191.2806343822024</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>92.97821716418491</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>274.1573001785191</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -27673,7 +27673,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27695,13 +27695,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>123.0697808247627</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -27743,10 +27743,10 @@
         <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627223</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>64.42167988779268</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27786,16 +27786,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27828,13 +27828,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>65.7319824091922</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>378.2885448112203</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27901,22 +27901,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>99.73581131010133</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28020,10 +28020,10 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>153.923765528121</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>191.3456372829722</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>204.5706967115221</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
         <v>220.8809405715231</v>
@@ -28606,7 +28606,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-13</v>
       </c>
       <c r="R17" t="n">
         <v>37.61298457733328</v>
@@ -28746,7 +28746,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -28755,7 +28755,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -28764,10 +28764,10 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>128.2979821082772</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,7 +28980,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -28992,10 +28992,10 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>5.63600263452949</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>130.3599693155844</v>
+        <v>35.71049010668801</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -29223,13 +29223,13 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>5.636002634528637</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="M25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634529149</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.65052755599478</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>30.27223765901181</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431648</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901181</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P29" t="n">
-        <v>93.9912744743165</v>
+        <v>30.27223765901186</v>
       </c>
       <c r="Q29" t="n">
-        <v>93.9912744743165</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="C31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="D31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="E31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="F31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="G31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="H31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="I31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="J31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="K31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="L31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="M31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="N31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="O31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="P31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="R31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="S31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="T31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="U31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="V31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="W31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="X31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.9912744743165</v>
+        <v>93.99127447431651</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000711</v>
+        <v>43.49509683160062</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>48.65992738832819</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="J34" t="n">
-        <v>30.07448747215907</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.8683420224736</v>
       </c>
       <c r="L34" t="n">
-        <v>94.97643844044904</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.7799197727099</v>
       </c>
     </row>
     <row r="35">
@@ -30168,7 +30168,7 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -30186,10 +30186,10 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>128.2979821082778</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,16 +30402,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
       <c r="M40" t="n">
-        <v>28.01250026485212</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30426,7 +30426,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>128.2979821082783</v>
       </c>
       <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
-      <c r="R43" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30730,7 +30730,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="45">
@@ -30852,37 +30852,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J46" t="n">
-        <v>35.7104901066887</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.636002634530584</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
   </sheetData>
@@ -32251,7 +32251,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>259.7991785760231</v>
       </c>
       <c r="L2" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>314.2765435022322</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N3" t="n">
-        <v>496.1762440226352</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>90.94294915246567</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,25 +34933,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344365</v>
+        <v>518.790584454231</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.790584454231</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>166.6120706981389</v>
       </c>
       <c r="P5" t="n">
-        <v>68.95436468749318</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>77.54012143340303</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>326.6735356069722</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344365</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.790584454231</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>133.1362567285003</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>181.2944783293118</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35191,7 +35191,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>286.2011804008418</v>
       </c>
       <c r="M9" t="n">
-        <v>582.1523102088539</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,7 +35267,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>236.7324157120106</v>
@@ -35498,10 +35498,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35735,10 +35735,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
-        <v>260.2256450279866</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35899,10 +35899,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36051,7 +36051,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O19" t="n">
         <v>164.3482495370789</v>
@@ -36060,10 +36060,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>5.636002634528405</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36139,7 +36139,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110598</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36288,10 +36288,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>190.6760370094883</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>294.7082188526632</v>
+        <v>200.0587396437669</v>
       </c>
       <c r="P22" t="n">
         <v>121.0870361379582</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
         <v>634.1127774006881</v>
@@ -36449,13 +36449,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7820836676943</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36519,13 +36519,13 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>171.4214974565486</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094879</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>146.110881726089</v>
+        <v>232.7614092820838</v>
       </c>
       <c r="K26" t="n">
         <v>362.6084404317796</v>
@@ -36601,13 +36601,13 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>581.7882983101033</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
         <v>445.6958119809042</v>
@@ -36616,7 +36616,7 @@
         <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>56.3782898969832</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P27" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36768,10 +36768,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,10 +36832,10 @@
         <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060962</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272228</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
         <v>645.507335125408</v>
@@ -36847,13 +36847,13 @@
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>445.6958119809042</v>
+        <v>381.9767751655996</v>
       </c>
       <c r="Q29" t="n">
-        <v>280.7039614853757</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698322</v>
+        <v>56.37828989698323</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215743</v>
+        <v>63.91678700215744</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611265</v>
@@ -36996,7 +36996,7 @@
         <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
-        <v>282.1645859271084</v>
+        <v>282.1645859271085</v>
       </c>
       <c r="N31" t="n">
         <v>279.0313088492753</v>
@@ -37008,7 +37008,7 @@
         <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446898</v>
+        <v>97.448038484469</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,28 +37066,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>146.110881726089</v>
+        <v>258.8908014987989</v>
       </c>
       <c r="K32" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
-        <v>498.303324968211</v>
+        <v>611.0832447409209</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511626</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449822</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>487.9795421773869</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>235.3726143993873</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>310.6684688643887</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563715</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>82.70543230055083</v>
       </c>
       <c r="K34" t="n">
-        <v>82.66165768680997</v>
+        <v>189.5299997092836</v>
       </c>
       <c r="L34" t="n">
-        <v>260.761933262469</v>
+        <v>278.5654145947299</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750299</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.68470683715</v>
+        <v>277.1281693097887</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380293</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102236</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37482,10 +37482,10 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>131.7547461184303</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835579</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M38" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N38" t="n">
         <v>533.1427107449111</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563714</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O39" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376044</v>
       </c>
       <c r="M40" t="n">
-        <v>216.1858117176441</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835607</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453571</v>
       </c>
       <c r="P43" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529095</v>
+        <v>7.69798984183555</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38026,7 +38026,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N44" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449131</v>
       </c>
       <c r="O44" t="n">
         <v>444.4844453457863</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="Q45" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>5.636002634529633</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032134056</v>
       </c>
       <c r="L46" t="n">
         <v>296.1454641376043</v>
